--- a/webScrapping/espn_scrapper/IPL/Mumbai Indians/Nathan Coulter-Nile .xlsx
+++ b/webScrapping/espn_scrapper/IPL/Mumbai Indians/Nathan Coulter-Nile .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,21 +413,27 @@
         <v>result</v>
       </c>
       <c r="D1" t="str">
+        <v>ownTeam</v>
+      </c>
+      <c r="E1" t="str">
+        <v>oppTeam</v>
+      </c>
+      <c r="F1" t="str">
         <v>batsman</v>
       </c>
-      <c r="E1" t="str">
+      <c r="G1" t="str">
         <v>totalRuns</v>
       </c>
-      <c r="F1" t="str">
+      <c r="H1" t="str">
         <v>totalBalls</v>
       </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
         <v>total4s</v>
       </c>
-      <c r="H1" t="str">
+      <c r="J1" t="str">
         <v>total6s</v>
       </c>
-      <c r="I1" t="str">
+      <c r="K1" t="str">
         <v>sr</v>
       </c>
     </row>
@@ -442,21 +448,27 @@
         <v>Sunrisers won by 10 wickets (with 17 balls remaining)</v>
       </c>
       <c r="D2" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="F2" t="str">
         <v xml:space="preserve">Nathan Coulter-Nile </v>
       </c>
-      <c r="E2" t="str">
+      <c r="G2" t="str">
         <v>1</v>
       </c>
-      <c r="F2" t="str">
+      <c r="H2" t="str">
         <v>3</v>
       </c>
-      <c r="G2" t="str">
+      <c r="I2" t="str">
         <v>0</v>
       </c>
-      <c r="H2" t="str">
+      <c r="J2" t="str">
         <v>0</v>
       </c>
-      <c r="I2" t="str">
+      <c r="K2" t="str">
         <v>33.33</v>
       </c>
     </row>
@@ -471,27 +483,33 @@
         <v>Match tied (Kings XI won the one-over eliminator)</v>
       </c>
       <c r="D3" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="F3" t="str">
         <v xml:space="preserve">Nathan Coulter-Nile </v>
       </c>
-      <c r="E3" t="str">
+      <c r="G3" t="str">
         <v>24</v>
       </c>
-      <c r="F3" t="str">
+      <c r="H3" t="str">
         <v>12</v>
       </c>
-      <c r="G3" t="str">
+      <c r="I3" t="str">
         <v>4</v>
       </c>
-      <c r="H3" t="str">
+      <c r="J3" t="str">
         <v>0</v>
       </c>
-      <c r="I3" t="str">
+      <c r="K3" t="str">
         <v>200.00</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/webScrapping/espn_scrapper/IPL/Mumbai Indians/Nathan Coulter-Nile .xlsx
+++ b/webScrapping/espn_scrapper/IPL/Mumbai Indians/Nathan Coulter-Nile .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -507,9 +507,79 @@
         <v>33.33</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="B4" t="str">
+        <v xml:space="preserve"> November 03 2020</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Sunrisers won by 10 wickets (with 17 balls remaining)</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="F4" t="str">
+        <v xml:space="preserve">Nathan Coulter-Nile </v>
+      </c>
+      <c r="G4" t="str">
+        <v>1</v>
+      </c>
+      <c r="H4" t="str">
+        <v>3</v>
+      </c>
+      <c r="I4" t="str">
+        <v>0</v>
+      </c>
+      <c r="J4" t="str">
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
+        <v>33.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="B5" t="str">
+        <v xml:space="preserve"> October 18 2020</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Match tied (Kings XI won the one-over eliminator)</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="F5" t="str">
+        <v xml:space="preserve">Nathan Coulter-Nile </v>
+      </c>
+      <c r="G5" t="str">
+        <v>24</v>
+      </c>
+      <c r="H5" t="str">
+        <v>12</v>
+      </c>
+      <c r="I5" t="str">
+        <v>4</v>
+      </c>
+      <c r="J5" t="str">
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <v>200.00</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K5"/>
   </ignoredErrors>
 </worksheet>
 </file>